--- a/biology/Médecine/Hôpital_militaire_d'Antananarivo/Hôpital_militaire_d'Antananarivo.xlsx
+++ b/biology/Médecine/Hôpital_militaire_d'Antananarivo/Hôpital_militaire_d'Antananarivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire_d%27Antananarivo</t>
+          <t>Hôpital_militaire_d'Antananarivo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital Militaire d’Antananarivo auparavant centre hospitalier de Soavinandriana et anciennement appelé « Girard et Robic » en hommage aux deux médecins français, a été inauguré le 13 août 1891 par la reine Ranavalona III et le Premier ministre Rainilaiarivony, le Trano Fitsaboana Isoavinandriana[1] était le premier hôpital de l'île après le dispensaire d'Analakely ouvert en 1864.
+L'hôpital Militaire d’Antananarivo auparavant centre hospitalier de Soavinandriana et anciennement appelé « Girard et Robic » en hommage aux deux médecins français, a été inauguré le 13 août 1891 par la reine Ranavalona III et le Premier ministre Rainilaiarivony, le Trano Fitsaboana Isoavinandriana était le premier hôpital de l'île après le dispensaire d'Analakely ouvert en 1864.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire_d%27Antananarivo</t>
+          <t>Hôpital_militaire_d'Antananarivo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 14 février 1889, le trano fitsabo Isoavinandriana est bâti sur un terrain de 3,34 ha, cédé à la LMS et la FFMA, sur la colline de Soavinandriana. C’est le premier hôpital de l’ile, après le dispensaire d’Analakely, ouvert en 1864. Le 13 août 1891, inauguration officielle par sa Majesté la Reine RANAVALONA III et le Premier Ministre RAINILAIARIVONY. 
 Une clé symbolique a été remise à la souveraine et exposée au Rova de Manjakamiadana avant son incendie le 15 novembre 1995. 
